--- a/medicine/Sexualité et sexologie/Q_(film,_1974)/Q_(film,_1974).xlsx
+++ b/medicine/Sexualité et sexologie/Q_(film,_1974)/Q_(film,_1974).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Q, également intitulé Au plaisir des dames, est un film franco-italo-belge réalisé par Jean-François Davy, sorti en 1974.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilles Pilard (Philippe Gasté), un garagiste touché par la crise et menacé de faillite, s'associe avec deux de ses amis — Max (Pierre Danny), exploitant une casse à ferraille, et l'avocat Xavier (Jean Roche) — et décide de se reconvertir en ouvrant une maison close pour une clientèle féminine. Le succès couronne son entreprise qui devient un enjeu politique. Nous suivons les avatars d'une campagne électorale singulière.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Q
 Titre alternatif : Au plaisir des dames
@@ -611,7 +627,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Philippe Gasté : Gilles Pilard
